--- a/js/service/impl/students_list.xlsx
+++ b/js/service/impl/students_list.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
-  <si>
-    <t>Lớp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Họ tên</t>
   </si>
@@ -31,13 +28,28 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Phiên</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Grade 1</t>
+    <t>Lớp: Grade 1</t>
+  </si>
+  <si>
+    <t>Phiên: Buổi sáng</t>
+  </si>
+  <si>
+    <t>Ngày: 2024-09-12T08:10:50.788Z</t>
+  </si>
+  <si>
+    <t>Sĩ số: 4</t>
+  </si>
+  <si>
+    <t>Có mặt: 2</t>
+  </si>
+  <si>
+    <t>Có phép: 1</t>
+  </si>
+  <si>
+    <t>Muộn : 1</t>
+  </si>
+  <si>
+    <t>Không phép: 0</t>
   </si>
   <si>
     <t>Emily Davis</t>
@@ -49,59 +61,56 @@
     <t>Nữ</t>
   </si>
   <si>
+    <t>Có mặt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Robert Brown</t>
+  </si>
+  <si>
+    <t>2006-09-12</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
     <t>Muộn</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>2005-09-15</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>2005-03-30</t>
+  </si>
+  <si>
+    <t>Có phép</t>
+  </si>
+  <si>
     <t>ốm</t>
-  </si>
-  <si>
-    <t>Buổi sáng</t>
-  </si>
-  <si>
-    <t>2024-09-10T10:16:09.986Z</t>
-  </si>
-  <si>
-    <t>Robert Brown</t>
-  </si>
-  <si>
-    <t>2006-09-12</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>tắc</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>2005-09-15</t>
-  </si>
-  <si>
-    <t>lụt</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>2005-03-30</t>
-  </si>
-  <si>
-    <t>uuu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,17 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="8" width="30" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,121 +500,175 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/js/service/impl/students_list.xlsx
+++ b/js/service/impl/students_list.xlsx
@@ -52,7 +52,7 @@
     <t>Không phép: 0</t>
   </si>
   <si>
-    <t>Emily Davis</t>
+    <t>Emily Davis1</t>
   </si>
   <si>
     <t>2005-03-22</t>

--- a/js/service/impl/students_list.xlsx
+++ b/js/service/impl/students_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Họ tên</t>
   </si>
@@ -31,82 +31,61 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>update1234</t>
-  </si>
-  <si>
-    <t>2024-09-24</t>
+    <t>Emily Davis1</t>
+  </si>
+  <si>
+    <t>2005-03-22</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Robert Brown</t>
+  </si>
+  <si>
+    <t>2006-09-12</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Có mặt</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Isabella Martinez</t>
-  </si>
-  <si>
-    <t>2005-04-05</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Muộn</t>
-  </si>
-  <si>
-    <t>Liam Anderson</t>
-  </si>
-  <si>
-    <t>2005-11-30</t>
-  </si>
-  <si>
-    <t>Olivia Thomas</t>
-  </si>
-  <si>
-    <t>2006-06-18</t>
-  </si>
-  <si>
-    <t>DXT</t>
-  </si>
-  <si>
-    <t>2005-05-12</t>
-  </si>
-  <si>
-    <t>Không phép</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>2005-06-14</t>
-  </si>
-  <si>
-    <t>Lớp: Grade 2</t>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>2005-09-15</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>2005-03-30</t>
+  </si>
+  <si>
+    <t>Lớp: Grade 1</t>
   </si>
   <si>
     <t>Phiên: Buổi sáng</t>
   </si>
   <si>
-    <t>Ngày: 10/09/2024</t>
-  </si>
-  <si>
-    <t>Sĩ số: 6</t>
-  </si>
-  <si>
-    <t>Có mặt: 3</t>
+    <t>Ngày: 2024-09-13T09:02:40.943Z</t>
+  </si>
+  <si>
+    <t>Sĩ số: 4</t>
+  </si>
+  <si>
+    <t>Có mặt: 0</t>
   </si>
   <si>
     <t>Có phép: 0</t>
   </si>
   <si>
-    <t>Muộn : 2</t>
-  </si>
-  <si>
-    <t>Không phép: 1</t>
+    <t>Muộn : 0</t>
+  </si>
+  <si>
+    <t>Không phép: 0</t>
   </si>
   <si>
     <t>id</t>
@@ -145,19 +124,7 @@
     <t>Buổi sáng</t>
   </si>
   <si>
-    <t>10/09/2024</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2024-09-13T09:02:40.943Z</t>
   </si>
 </sst>
 </file>
@@ -534,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -574,32 +541,32 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -608,58 +575,24 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -684,7 +617,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -693,7 +626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -702,7 +635,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -711,7 +644,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -720,7 +653,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -729,7 +662,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -738,7 +671,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -763,7 +696,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -773,79 +706,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -866,54 +777,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
